--- a/fia/20210622/doc/Analise de Residuos.xlsx
+++ b/fia/20210622/doc/Analise de Residuos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\iCloudDrive\Documents\FIA\MBA em Analytics (2020)\1. Aulas\02. Regressão Linear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210622\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E740D53-00E6-46BA-B07D-F590CB96F146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE00C2-091A-42E9-B4FB-91EB78575A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Startups" sheetId="32" r:id="rId1"/>
@@ -31,18 +31,7 @@
     <definedName name="X">#REF!</definedName>
     <definedName name="Y">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2718,7 +2707,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -2734,7 +2723,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -8572,7 +8561,9 @@
   </sheetPr>
   <dimension ref="A1:IV91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10106,7 +10097,9 @@
   </sheetPr>
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16836,7 +16829,7 @@
   </sheetPr>
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17509,7 +17502,7 @@
   </sheetPr>
   <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/fia/20210622/doc/Analise de Residuos.xlsx
+++ b/fia/20210622/doc/Analise de Residuos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210622\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE00C2-091A-42E9-B4FB-91EB78575A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18952FD-E554-401D-94AD-0F44312AF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Startups" sheetId="32" r:id="rId1"/>
@@ -2723,7 +2723,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -8561,8 +8561,8 @@
   </sheetPr>
   <dimension ref="A1:IV91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16829,7 +16829,9 @@
   </sheetPr>
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17502,7 +17504,9 @@
   </sheetPr>
   <dimension ref="A1:IV39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
